--- a/SCBAA/2020/Region 9.xlsx
+++ b/SCBAA/2020/Region 9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E942CF-C148-4F6F-95E4-39BC1857F6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE4951-9CD8-489A-9F7E-BF21CBEB9143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="1230" windowWidth="13425" windowHeight="12495" activeTab="3" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Zamboanga" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1574,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1740,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>724020546.36000001</v>
       </c>
     </row>
@@ -1787,7 +1793,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>228028916.33000001</v>
       </c>
     </row>
@@ -1978,7 +1983,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>4408087449.8999996</v>
       </c>
     </row>
@@ -2245,7 +2249,6 @@
         <v>12</v>
       </c>
       <c r="E63" s="40">
-        <f>481291198.83+263816250</f>
         <v>745107448.82999992</v>
       </c>
     </row>
@@ -2556,7 +2559,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>3635192808.0299997</v>
       </c>
     </row>
@@ -2723,7 +2725,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="38">
-        <f>221946851.99+107640949.33</f>
         <v>329587801.31999999</v>
       </c>
     </row>
@@ -2732,7 +2733,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>1128218521.8099999</v>
       </c>
     </row>
@@ -2744,7 +2744,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>4763411329.8400002</v>
       </c>
     </row>
@@ -2766,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34F2253-6815-409D-8F88-1EAF6167736E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,7 +2924,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>21583000</v>
       </c>
     </row>
@@ -2979,7 +2977,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>17702000</v>
       </c>
     </row>
@@ -3170,7 +3167,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>880747000</v>
       </c>
     </row>
@@ -3716,7 +3712,6 @@
         <v>58</v>
       </c>
       <c r="E90" s="39">
-        <f>23580000+20000</f>
         <v>23600000</v>
       </c>
     </row>
@@ -3728,7 +3723,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="23">
-        <f>212168000+2600000+64722000</f>
         <v>279490000</v>
       </c>
     </row>
@@ -3749,7 +3743,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>857437000</v>
       </c>
     </row>
@@ -3924,7 +3917,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>53236000</v>
       </c>
     </row>
@@ -3936,7 +3928,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>910673000</v>
       </c>
     </row>
@@ -5148,7 +5139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1959540E-DB3D-4EA6-A1E4-65BF5C6DFF80}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
